--- a/ProblemA/data.xlsx
+++ b/ProblemA/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\SHUWEICUP2544531_2025.11.14\ProblemA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A6CD5AA-A02B-40A8-987B-4A7E1148D428}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BE2DF6D-4CAE-417E-A16F-D5D82126BB68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="759" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="759" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="系统参数" sheetId="9" r:id="rId1"/>
@@ -922,8 +922,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5EECDEE-5388-4089-8269-84C1E6BB87F6}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1048,7 +1048,6 @@
     </row>
     <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1061,7 +1060,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28F6AD6B-90C2-4829-AE34-21358A64ECF0}">
   <dimension ref="A1:F1002"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A961" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C3" sqref="C3:F1002"/>
     </sheetView>
   </sheetViews>

--- a/ProblemA/data.xlsx
+++ b/ProblemA/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\SHUWEICUP2544531_2025.11.14\ProblemA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BE2DF6D-4CAE-417E-A16F-D5D82126BB68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EBB8DAF-D98A-4CB1-BFA0-17A8CB81E9D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="759" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="759" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="系统参数" sheetId="9" r:id="rId1"/>
@@ -922,8 +922,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5EECDEE-5388-4089-8269-84C1E6BB87F6}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1060,8 +1060,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28F6AD6B-90C2-4829-AE34-21358A64ECF0}">
   <dimension ref="A1:F1002"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:F1002"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C3" activeCellId="2" sqref="C26:F1002 D25:F25 C3:F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
